--- a/references.xlsx
+++ b/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parvathykrishnank/Documents/GitHub/CCS RTD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559AD968-EE95-5A44-80F9-23356EFE32E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50536C68-7A24-254F-AC0D-0D1BA88DD6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="45800" windowHeight="22200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Link</t>
   </si>
@@ -126,6 +126,24 @@
       </rPr>
       <t xml:space="preserve"> - Metrics designed to build strong climate leadership and to comply with market best practices. They cover the full scope of  strategy, from climate impact to business resilience.</t>
     </r>
+  </si>
+  <si>
+    <t>Estimates of changes in the frequency or height of contemporary extreme sea levels (ESLs) under various climate change scenarios are often used by climate and sea level scientists to help communicate the physical basis for societal concern regarding sea level rise. Changes in ESLs (i.e., the hazard) are often represented using various metrics and indicators that, when anchored to salient impacts on human systems and the natural environment, provide useful information to policy makers, stakeholders, and the general public. While changes in hazards are often anchored to impacts at local scales, aggregate global summary metrics generally lack the context of local exposure and vulnerability that facilitates translating hazards into impacts. Contextualizing changes in hazards is also needed when communicating the timing of when projected ESL frequencies cross critical thresholds, such as the year in which ESLs higher than the design height benchmark of protective infrastructure (e.g., the 100-year water level) are expected to occur within the lifetime of that infrastructure. We present specific examples demonstrating the need for such contextualization using a simple flood exposure model, local sea level rise projections, and population exposure estimates for 414 global cities. We suggest regional and global climate assessment reports integrate global, regional, and local perspectives on coastal risk to address hazard, vulnerability and exposure simultaneously</t>
+  </si>
+  <si>
+    <t>Popular extreme sea level metrics can better communicate impacts</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s10584-021-03288-6?utm_source=getftr&amp;utm_medium=getftr&amp;utm_campaign=getftr_pilot</t>
+  </si>
+  <si>
+    <t>The northwestern Mediterranean coast is one of the areas most affected by flash floods and adverse weather, where also global climate scenarios are predicting an increase in precipitation extremes. This, along with the sea-level rise and the associated potential infrastructure and economical losses, represents a major risk for coastal settlements, as the one studied in this work: a major touristic area on the southern coast of Catalonia. The objective of the present paper is, thus, to understand in-depth the behavior of convective activity in the area and its link with flash flood events, to improve adverse and severe weather early warning systems in a rapidly changing weather as an adaptation measure. With this purpose, the study focuses on the period 2014–2018, analyzing the convective cells and storm motion in the region of study, through the new identification and tracking algorithm developed by the authors and applied in the Meteorological Service of Catalonia. The results show that the area is mostly affected by shallow but efficient convection, probably embedded in major weather systems with high precipitation rain rates, which tends to saturate the catchments and produce flooding. The work also shows the role of the topography as a triggering factor for storms outside the convective season, as a key feature for the convergence lines organization, and as a capping for stationary cells upstream. Improvements in the current warning system, such as different precipitation thresholds considering the time of exposure to that rain, as well as a further study are also presented as main results. These results can be extrapolated and applied to other regions affected by the same kind of heavy precipitation and flash floods.</t>
+  </si>
+  <si>
+    <t>Connecting flash flood events with radar-derived convective storm characteristics on the northwestern Mediterranean coast: knowing the present for better future scenarios adaptation</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0169809519315534?pes=vor</t>
   </si>
 </sst>
 </file>
@@ -195,7 +213,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -203,15 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -553,16 +563,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="41.33203125" customWidth="1"/>
@@ -572,7 +582,7 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -582,11 +592,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>2022</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -596,95 +606,128 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="395" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="128" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2019</v>
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>2022</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4">
+        <v>19</v>
+      </c>
+      <c r="B4">
         <v>2022</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="288" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>2022</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6">
         <v>2021</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="240" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B7">
         <v>2021</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2022</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>2021</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="9" spans="1:4" ht="335" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="395" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>2019</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D10">
+    <sortCondition descending="1" ref="B2:B10"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{1F72E4B5-E7E6-AE41-821C-ED96A6C3BD56}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{3673F10D-9BF2-5F42-AF15-5D39EEDEC40E}"/>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{1F72E4B5-E7E6-AE41-821C-ED96A6C3BD56}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{3673F10D-9BF2-5F42-AF15-5D39EEDEC40E}"/>
     <hyperlink ref="D8" r:id="rId3" xr:uid="{0E0EA6AB-DB90-A049-A8AF-176911DDA4CC}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{9874CF37-767D-8249-B259-8C94A62A0D99}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{5C661A4F-FE2A-C54E-A0A6-5BB0F0A4DC8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/references.xlsx
+++ b/references.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parvathykrishnank/Documents/GitHub/CCS RTD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50536C68-7A24-254F-AC0D-0D1BA88DD6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FC94E9-1825-D94A-A239-3FAAA7BEA8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="45800" windowHeight="22200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$11</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Link</t>
   </si>
@@ -144,6 +147,66 @@
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/pii/S0169809519315534?pes=vor</t>
+  </si>
+  <si>
+    <t>Climate and Disaster Risk Screening - Sector Screening Guidance Note
+Transportation Sector</t>
+  </si>
+  <si>
+    <t>This Sector Screening Guidance Note provides an end-to-end roadmap of the climate and disaster risk
+screening process.</t>
+  </si>
+  <si>
+    <t>https://climatescreeningtools.worldbank.org/sites/default/files/guidance_note/TRANSPORTATION_Guidance_Note.pdf</t>
+  </si>
+  <si>
+    <t>Guidelines for Climate
+Proofing Investment in
+the Transport Sector
+Road Infrastructure Projects</t>
+  </si>
+  <si>
+    <t>This publication, Guidelines for Climate Proofing Investment in the Transport Sector: Road Infrastructure Projects (henceforth Guidelines), aims to present a step-by-step methodological approach to assist project teams to incorporate climate change adaptation measures into transport sector investment projects. While the focus of the Guidelines is on the project level, an improved understanding of climate change impacts should also be used in the design of infrastructure planning and development policies and strategies to ensure appropriate resource allocation. Though the transport sector includes roads, waterways, rails, and airborne transport, this Guidelines focuses solely on road infrastructure</t>
+  </si>
+  <si>
+    <t>https://www.adb.org/sites/default/files/institutional-document/32772/files/guidelines-climate-proofing-roads.pdf</t>
+  </si>
+  <si>
+    <t>Climate Risk and Vulnerability
+Assessment Framework for Caribbean Coastal Transport Infrastructure</t>
+  </si>
+  <si>
+    <t>https://unctad.org/system/files/official-document/dtltlb2018d1_en.pdf</t>
+  </si>
+  <si>
+    <t>Transport infrastructure in Small Island Developing States (SIDS) is vulnerable to climate change impacts. As detailed further below, climate-related hazards (e.g., sea level rise, storm surge, increased temperatures) can damage individual transport facilities such as ports and airports, which can in turn disrupt transport services and cripple small island economies. Strategies to reduce these risks can come from both top-down approaches—such as national policies and plans to increase overall resilience—and bottom-up approaches—such as facilityspecific engineering enhancements or operational changes to prevent damage. This report provides information to help SIDS increase the resilience of their transport infrastructure, with a focus on ports and airports. The report was developed for UNCTAD under the United Nations Development Account project “Climate change impacts on coastal transport infrastructure in the Caribbean: Enhancing the adaptive capacity of Small Island Developing States.”1 This project included two parallel efforts: (1) two national case studies focused on coastal transport infrastructure vulnerability in Jamaica and Saint Lucia, and (2) the development of a transferable methodology for such vulnerability assessments in Caribbean SIDS.</t>
+  </si>
+  <si>
+    <t>Vulnerability of the US western electric grid to hydro-climatological conditions: How bad can it get?</t>
+  </si>
+  <si>
+    <t>Large-scale assessments of the vulnerability of electric infrastructure are usually performed for a baseline water year or a specific period of drought. This approach does not provide insights into the full distribution of stress on the grid across the diversity of historic climate events. In this paper we estimate the Western US grid stress distribution as a function of inter-annual variability in regional water availability. We softly couple an integrated water model (climate, hydrology, routing, water resources management, and socioeconomic water demand models) into an electricity production cost model and simulate electricity generation and delivery of power for combinations of 30 years of historical water availability data. Results indicate a clear correlation between grid vulnerability (unmet electricity services) for the month of August, and annual water availability. There is a 21% chance of insufficient generation (system threshold) and a 3% chance that at least 6% of the electricity demand cannot be met in August. Better knowledge of the probability distribution of the risk exposure of the electricity system due to water constraints could improve power system planning. Deeper understanding of the impacts of regional variability in water availability on the reliability of the grid could help develop tradeoff strategies.</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0360544216311732?pes=vor</t>
+  </si>
+  <si>
+    <t>Water security and society: Risks, metrics, and pathways</t>
+  </si>
+  <si>
+    <t>https://www.annualreviews.org/doi/10.1146/annurev-environ-013012-093817</t>
+  </si>
+  <si>
+    <t>Water security is a major challenge for science and society. We review the rapidly growing literature on water security from the perspective of risk science and management. Competing definitions and indicators of water security reflect unsettled conceptual and methodological issues. However, risk concepts have become prevalent in defining water security; measuring it quantitatively; tracking indicators of hazards, exposure, and vulnerability; and informing management options to reduce water-related risks. We examine water security indicators and indices to identify thresholds for water-related risks across multiple dimensions of water security and examine how these vary across different scales and socioeconomic contexts. Water security indicators reveal a disparity in hazards and vulnerability across geographic and political-economic conditions. Recognition of water security as a major societal challenge has been closely followed by a strong commitment to academic, government, development, and policy responses. Pathways to water security capture the sequence of investments in institutions and infrastructure to reduce water-related risks and manage trade-offs. Two well-studied water management case studies illustrate the pathways to water security and the need for more systematic comparative assessment.</t>
+  </si>
+  <si>
+    <t>Debris flow, rainfall and climate change in Scotland</t>
+  </si>
+  <si>
+    <t>https://www.lyellcollection.org/doi/10.1144/1470-9236/08-108</t>
+  </si>
+  <si>
+    <t>In August 2004 a series of landslides in the form of debris flows occurred in Scotland. Critically, the A83, A9 and A85 routes, which form important parts of the major road network, were all affected by these events. Although debris flows occur with some frequency in Scotland, they affect the major road network only relatively rarely. However, when they do affect roads the degree of damage, in terms of the infrastructure and the loss of utility to road users, can have a major detrimental effect on both economic and social aspects of the use of the asset. Following these events work was put in place to assess and rank the hazards and to develop a management and mitigation strategy. The management strategy is largely based upon the reduction of the exposure of road users to risks from debris flow. It operates upon the principle of Detection, Notification and Action (DNA). A crucial element of this work is the continuing development of a rainfall threshold to indicate conditions likely to produce debris-flow activity, and the development of a tentative threshold is described herein. Clearly, any change in rainfall patterns as a result of recent climate trends and future climate change has the potential to affect the frequency and intensity of debris flow and thus the effectiveness of the associated management strategy for such events, and the potential effects of such phenomena are considered in this paper.</t>
   </si>
 </sst>
 </file>
@@ -563,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -627,7 +690,7 @@
       <c r="B4">
         <v>2022</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -718,9 +781,94 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>2019</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>2011</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>2016</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>2014</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="288" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>2010</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D10">
-    <sortCondition descending="1" ref="B2:B10"/>
+  <autoFilter ref="A1:D11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
+    <sortCondition descending="1" ref="B2:B11"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" xr:uid="{1F72E4B5-E7E6-AE41-821C-ED96A6C3BD56}"/>
@@ -728,6 +876,10 @@
     <hyperlink ref="D8" r:id="rId3" xr:uid="{0E0EA6AB-DB90-A049-A8AF-176911DDA4CC}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{9874CF37-767D-8249-B259-8C94A62A0D99}"/>
     <hyperlink ref="D9" r:id="rId5" xr:uid="{5C661A4F-FE2A-C54E-A0A6-5BB0F0A4DC8C}"/>
+    <hyperlink ref="D13" r:id="rId6" xr:uid="{C801DB54-F88F-4641-8F90-BB3211436ADA}"/>
+    <hyperlink ref="D14" r:id="rId7" xr:uid="{17C1975A-2A69-7547-A675-7DF4E8FB7058}"/>
+    <hyperlink ref="D15" r:id="rId8" xr:uid="{3ECE221A-4E24-0D41-B44E-D471356A1057}"/>
+    <hyperlink ref="D16" r:id="rId9" xr:uid="{34D2DD8C-72E0-2948-95B8-98EA3C0224F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/references.xlsx
+++ b/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parvathykrishnank/Documents/GitHub/CCS RTD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FC94E9-1825-D94A-A239-3FAAA7BEA8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47AFDBA-7993-BE45-922D-F701EAEB87A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="45800" windowHeight="22200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>

--- a/references.xlsx
+++ b/references.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parvathykrishnank/Documents/GitHub/CCS RTD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47AFDBA-7993-BE45-922D-F701EAEB87A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2573B18D-E9A2-8141-A36F-FAF2E70CE8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="45800" windowHeight="22200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$11</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Link</t>
   </si>
@@ -207,6 +207,55 @@
   </si>
   <si>
     <t>In August 2004 a series of landslides in the form of debris flows occurred in Scotland. Critically, the A83, A9 and A85 routes, which form important parts of the major road network, were all affected by these events. Although debris flows occur with some frequency in Scotland, they affect the major road network only relatively rarely. However, when they do affect roads the degree of damage, in terms of the infrastructure and the loss of utility to road users, can have a major detrimental effect on both economic and social aspects of the use of the asset. Following these events work was put in place to assess and rank the hazards and to develop a management and mitigation strategy. The management strategy is largely based upon the reduction of the exposure of road users to risks from debris flow. It operates upon the principle of Detection, Notification and Action (DNA). A crucial element of this work is the continuing development of a rainfall threshold to indicate conditions likely to produce debris-flow activity, and the development of a tentative threshold is described herein. Clearly, any change in rainfall patterns as a result of recent climate trends and future climate change has the potential to affect the frequency and intensity of debris flow and thus the effectiveness of the associated management strategy for such events, and the potential effects of such phenomena are considered in this paper.</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suada Sulejmanović, Sanjin Albinović, Žanesa Ljevo, Mirza Pozder &amp; Ammar Šarić </t>
+  </si>
+  <si>
+    <t>ICAO</t>
+  </si>
+  <si>
+    <t>Adshead, D., Thacker, S., Fuldauer, L.I., Gall, S.S., Chow, N., Pant, R., Russell, T., Bajpai, A., Morgan, G., Bhikhoo, N.,
+Boroto, D., Palmer, R., Cançado, D., Jain, N., Klöttschen, V., Lawal, H., Dery, P., Twum, E., Mohammed, G., Hall, J.W., and Agbesi, L. 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. J. Rasmussen, Scott Kulp, Robert E. Kopp, Michael Oppenheimer &amp; Benjamin H. Strauss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luke J. Harrington, Carl-Friedrich Schleussner &amp; Friederike E. L. Otto </t>
+  </si>
+  <si>
+    <t>Dr. Michael Siebert, et.all</t>
+  </si>
+  <si>
+    <t>Task Force on Climate-related Financial Disclosures</t>
+  </si>
+  <si>
+    <t>Zander S. Venter, Norun Hjertager Krog, David N. Barton</t>
+  </si>
+  <si>
+    <t>Anna del Moral, María del Carmen Llasat, Tomeu Rigo</t>
+  </si>
+  <si>
+    <t>World Bank Group</t>
+  </si>
+  <si>
+    <t>Asian Development Bank</t>
+  </si>
+  <si>
+    <t>UNCTAD</t>
+  </si>
+  <si>
+    <t>N. Voisin, M. Kintner-Meyer, R. Skaggs, T. Nguyen, D. Wu, J. Dirks , Y. Xie, M. Hejazi</t>
+  </si>
+  <si>
+    <t>Dustin Garrick and Jim W. Hall</t>
+  </si>
+  <si>
+    <t>M.G. Winter mwinter@trl.co.uk, J. Dent, F. Macgregor, P. Dempsey, A. Motion, and L. Shackman</t>
   </si>
 </sst>
 </file>
@@ -626,22 +675,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="41.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="4" width="66.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -649,13 +699,16 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -663,13 +716,16 @@
         <v>2022</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -677,13 +733,16 @@
         <v>2022</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -691,13 +750,16 @@
         <v>2022</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="288" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -705,13 +767,16 @@
         <v>2022</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -719,13 +784,16 @@
         <v>2021</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -733,13 +801,16 @@
         <v>2021</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -747,13 +818,16 @@
         <v>2021</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="335" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="350" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -761,13 +835,16 @@
         <v>2020</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="395" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="395" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -775,13 +852,16 @@
         <v>2019</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -789,13 +869,16 @@
         <v>2019</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -803,13 +886,16 @@
         <v>2011</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -817,13 +903,16 @@
         <v>2018</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -831,13 +920,16 @@
         <v>2016</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -845,13 +937,16 @@
         <v>2014</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="288" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -859,27 +954,35 @@
         <v>2010</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
+  <autoFilter ref="A1:E11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
     <sortCondition descending="1" ref="B2:B11"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" xr:uid="{1F72E4B5-E7E6-AE41-821C-ED96A6C3BD56}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{3673F10D-9BF2-5F42-AF15-5D39EEDEC40E}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{0E0EA6AB-DB90-A049-A8AF-176911DDA4CC}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{9874CF37-767D-8249-B259-8C94A62A0D99}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{5C661A4F-FE2A-C54E-A0A6-5BB0F0A4DC8C}"/>
-    <hyperlink ref="D13" r:id="rId6" xr:uid="{C801DB54-F88F-4641-8F90-BB3211436ADA}"/>
-    <hyperlink ref="D14" r:id="rId7" xr:uid="{17C1975A-2A69-7547-A675-7DF4E8FB7058}"/>
-    <hyperlink ref="D15" r:id="rId8" xr:uid="{3ECE221A-4E24-0D41-B44E-D471356A1057}"/>
-    <hyperlink ref="D16" r:id="rId9" xr:uid="{34D2DD8C-72E0-2948-95B8-98EA3C0224F7}"/>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{1F72E4B5-E7E6-AE41-821C-ED96A6C3BD56}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{3673F10D-9BF2-5F42-AF15-5D39EEDEC40E}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{0E0EA6AB-DB90-A049-A8AF-176911DDA4CC}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{9874CF37-767D-8249-B259-8C94A62A0D99}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{5C661A4F-FE2A-C54E-A0A6-5BB0F0A4DC8C}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{C801DB54-F88F-4641-8F90-BB3211436ADA}"/>
+    <hyperlink ref="E14" r:id="rId7" xr:uid="{17C1975A-2A69-7547-A675-7DF4E8FB7058}"/>
+    <hyperlink ref="E15" r:id="rId8" xr:uid="{3ECE221A-4E24-0D41-B44E-D471356A1057}"/>
+    <hyperlink ref="E16" r:id="rId9" xr:uid="{34D2DD8C-72E0-2948-95B8-98EA3C0224F7}"/>
+    <hyperlink ref="E4" r:id="rId10" xr:uid="{6A852E93-38D4-C849-97A8-0BB3A8766259}"/>
+    <hyperlink ref="E6" r:id="rId11" xr:uid="{19DDFB9D-D02A-454C-8AAF-223F925B1E1E}"/>
+    <hyperlink ref="E7" r:id="rId12" xr:uid="{80F33A97-2E8D-804E-9322-C8A30239ED99}"/>
+    <hyperlink ref="E11" r:id="rId13" xr:uid="{EF806942-E14A-C942-8417-695BF14836E3}"/>
+    <hyperlink ref="E12" r:id="rId14" xr:uid="{08AC22F9-36B0-4C42-9152-5531679FCE40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
